--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -14,126 +14,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>Java</t>
   </si>
   <si>
-    <t>0.1078</t>
-  </si>
-  <si>
-    <t>0.0786</t>
-  </si>
-  <si>
-    <t>0.0166</t>
-  </si>
-  <si>
-    <t>0.0303</t>
-  </si>
-  <si>
-    <t>0.0197</t>
-  </si>
-  <si>
-    <t>0.0067</t>
-  </si>
-  <si>
-    <t>0.0032</t>
-  </si>
-  <si>
-    <t>0.0136</t>
-  </si>
-  <si>
-    <t>0.0204</t>
-  </si>
-  <si>
-    <t>0.0182</t>
-  </si>
-  <si>
-    <t>0.0417</t>
-  </si>
-  <si>
-    <t>7.3148</t>
-  </si>
-  <si>
-    <t>3.5502</t>
-  </si>
-  <si>
-    <t>0.2791</t>
-  </si>
-  <si>
-    <t>0.0541</t>
-  </si>
-  <si>
-    <t>2.0671</t>
-  </si>
-  <si>
-    <t>1.7385</t>
-  </si>
-  <si>
-    <t>0.0061</t>
-  </si>
-  <si>
-    <t>0.0711</t>
-  </si>
-  <si>
-    <t>0.1119</t>
-  </si>
-  <si>
-    <t>14.3192</t>
-  </si>
-  <si>
-    <t>11.2590</t>
-  </si>
-  <si>
-    <t>32.6775</t>
-  </si>
-  <si>
-    <t>0.5253</t>
-  </si>
-  <si>
-    <t>13.8540</t>
-  </si>
-  <si>
-    <t>13.4208</t>
-  </si>
-  <si>
-    <t>0.0257</t>
-  </si>
-  <si>
-    <t>0.0263</t>
-  </si>
-  <si>
-    <t>48.0531</t>
-  </si>
-  <si>
-    <t>6911.3473</t>
-  </si>
-  <si>
-    <t>362671.5842</t>
-  </si>
-  <si>
-    <t>19666.6394</t>
-  </si>
-  <si>
-    <t>684.5041</t>
-  </si>
-  <si>
-    <t>134.7300</t>
-  </si>
-  <si>
-    <t>422.1143</t>
-  </si>
-  <si>
-    <t>328.9299</t>
-  </si>
-  <si>
-    <t>709.5183</t>
-  </si>
-  <si>
-    <t>1876.9226</t>
-  </si>
-  <si>
-    <t>6488.8933</t>
+    <t>0.0836</t>
+  </si>
+  <si>
+    <t>0.0425</t>
+  </si>
+  <si>
+    <t>0.0181</t>
+  </si>
+  <si>
+    <t>0.0164</t>
+  </si>
+  <si>
+    <t>0.0124</t>
+  </si>
+  <si>
+    <t>0.0219</t>
+  </si>
+  <si>
+    <t>0.0142</t>
+  </si>
+  <si>
+    <t>0.0091</t>
+  </si>
+  <si>
+    <t>0.0331</t>
+  </si>
+  <si>
+    <t>0.0071</t>
+  </si>
+  <si>
+    <t>2.2156</t>
+  </si>
+  <si>
+    <t>1.2618</t>
+  </si>
+  <si>
+    <t>0.1094</t>
+  </si>
+  <si>
+    <t>3.5354</t>
+  </si>
+  <si>
+    <t>0.8514</t>
+  </si>
+  <si>
+    <t>0.1998</t>
+  </si>
+  <si>
+    <t>3.4234</t>
+  </si>
+  <si>
+    <t>0.2306</t>
+  </si>
+  <si>
+    <t>6.1601</t>
+  </si>
+  <si>
+    <t>4.6235</t>
+  </si>
+  <si>
+    <t>0.0984</t>
+  </si>
+  <si>
+    <t>221.9756</t>
+  </si>
+  <si>
+    <t>27.6551</t>
+  </si>
+  <si>
+    <t>7.8618</t>
+  </si>
+  <si>
+    <t>8.6513</t>
+  </si>
+  <si>
+    <t>122.4013</t>
+  </si>
+  <si>
+    <t>0.2163</t>
+  </si>
+  <si>
+    <t>118.8619</t>
+  </si>
+  <si>
+    <t>0.0022</t>
+  </si>
+  <si>
+    <t>0.3617</t>
   </si>
 </sst>
 </file>
@@ -549,7 +522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,7 +566,7 @@
       </c>
       <c r="D2" t="inlineStr" s="0">
         <is>
-          <t>0.0533</t>
+          <t>0.0392</t>
         </is>
       </c>
     </row>
@@ -611,7 +584,7 @@
       </c>
       <c r="D3" t="inlineStr" s="0">
         <is>
-          <t>0.0395</t>
+          <t>0.0302</t>
         </is>
       </c>
     </row>
@@ -629,7 +602,7 @@
       </c>
       <c r="D4" t="inlineStr" s="0">
         <is>
-          <t>0.0331</t>
+          <t>0.0259</t>
         </is>
       </c>
     </row>
@@ -647,7 +620,7 @@
       </c>
       <c r="D5" t="inlineStr" s="0">
         <is>
-          <t>0.0719</t>
+          <t>0.0568</t>
         </is>
       </c>
     </row>
@@ -665,7 +638,7 @@
       </c>
       <c r="D6" t="inlineStr" s="0">
         <is>
-          <t>0.1404</t>
+          <t>0.1119</t>
         </is>
       </c>
     </row>
@@ -683,7 +656,7 @@
       </c>
       <c r="D7" t="inlineStr" s="0">
         <is>
-          <t>0.0188</t>
+          <t>0.0147</t>
         </is>
       </c>
     </row>
@@ -701,7 +674,7 @@
       </c>
       <c r="D8" t="inlineStr" s="0">
         <is>
-          <t>0.0094</t>
+          <t>0.0075</t>
         </is>
       </c>
     </row>
@@ -719,7 +692,7 @@
       </c>
       <c r="D9" t="inlineStr" s="0">
         <is>
-          <t>0.0560</t>
+          <t>0.0442</t>
         </is>
       </c>
     </row>
@@ -737,7 +710,7 @@
       </c>
       <c r="D10" t="inlineStr" s="0">
         <is>
-          <t>0.1090</t>
+          <t>0.0860</t>
         </is>
       </c>
     </row>
@@ -755,7 +728,7 @@
       </c>
       <c r="D11" t="inlineStr" s="0">
         <is>
-          <t>0.1397</t>
+          <t>0.1112</t>
         </is>
       </c>
     </row>
@@ -773,7 +746,7 @@
       </c>
       <c r="D12" t="inlineStr" s="0">
         <is>
-          <t>0.0624</t>
+          <t>0.0618</t>
         </is>
       </c>
     </row>
@@ -791,7 +764,7 @@
       </c>
       <c r="D13" t="inlineStr" s="0">
         <is>
-          <t>55.8121</t>
+          <t>55.1507</t>
         </is>
       </c>
     </row>
@@ -809,7 +782,7 @@
       </c>
       <c r="D14" t="inlineStr" s="0">
         <is>
-          <t>23.8465</t>
+          <t>23.5322</t>
         </is>
       </c>
     </row>
@@ -827,7 +800,7 @@
       </c>
       <c r="D15" t="inlineStr" s="0">
         <is>
-          <t>2.4163</t>
+          <t>2.3969</t>
         </is>
       </c>
     </row>
@@ -845,7 +818,7 @@
       </c>
       <c r="D16" t="inlineStr" s="0">
         <is>
-          <t>0.4854</t>
+          <t>0.4844</t>
         </is>
       </c>
     </row>
@@ -863,7 +836,7 @@
       </c>
       <c r="D17" t="inlineStr" s="0">
         <is>
-          <t>16.8073</t>
+          <t>16.7971</t>
         </is>
       </c>
     </row>
@@ -881,7 +854,7 @@
       </c>
       <c r="D18" t="inlineStr" s="0">
         <is>
-          <t>31.7397</t>
+          <t>32.0088</t>
         </is>
       </c>
     </row>
@@ -899,7 +872,7 @@
       </c>
       <c r="D19" t="inlineStr" s="0">
         <is>
-          <t>0.0484</t>
+          <t>0.0488</t>
         </is>
       </c>
     </row>
@@ -917,7 +890,7 @@
       </c>
       <c r="D20" t="inlineStr" s="0">
         <is>
-          <t>2.0935</t>
+          <t>2.0473</t>
         </is>
       </c>
     </row>
@@ -935,7 +908,7 @@
       </c>
       <c r="D21" t="inlineStr" s="0">
         <is>
-          <t>3.4707</t>
+          <t>3.4981</t>
         </is>
       </c>
     </row>
@@ -953,7 +926,7 @@
       </c>
       <c r="D22" t="inlineStr" s="0">
         <is>
-          <t>402.9510</t>
+          <t>388.5022</t>
         </is>
       </c>
     </row>
@@ -971,7 +944,7 @@
       </c>
       <c r="D23" t="inlineStr" s="0">
         <is>
-          <t>0.0442</t>
+          <t>0.0438</t>
         </is>
       </c>
     </row>
@@ -989,7 +962,7 @@
       </c>
       <c r="D24" t="inlineStr" s="0">
         <is>
-          <t>304.1419</t>
+          <t>302.8763</t>
         </is>
       </c>
     </row>
@@ -1007,7 +980,7 @@
       </c>
       <c r="D25" t="inlineStr" s="0">
         <is>
-          <t>853.5871</t>
+          <t>880.0605</t>
         </is>
       </c>
     </row>
@@ -1025,7 +998,7 @@
       </c>
       <c r="D26" t="inlineStr" s="0">
         <is>
-          <t>8.7777</t>
+          <t>9.5301</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1016,7 @@
       </c>
       <c r="D27" t="inlineStr" s="0">
         <is>
-          <t>439.6663</t>
+          <t>485.2683</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1034,7 @@
       </c>
       <c r="D28" t="inlineStr" s="0">
         <is>
-          <t>359.6213</t>
+          <t>383.2047</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1052,7 @@
       </c>
       <c r="D29" t="inlineStr" s="0">
         <is>
-          <t>0.7668</t>
+          <t>1.2894</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1070,7 @@
       </c>
       <c r="D30" t="inlineStr" s="0">
         <is>
-          <t>0.7865</t>
+          <t>1.4368</t>
         </is>
       </c>
     </row>
@@ -1115,568 +1088,1508 @@
       </c>
       <c r="D31" t="inlineStr" s="0">
         <is>
-          <t>1740.7193</t>
+          <t>1814.1181</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="0">
-        <v>0</v>
+      <c r="A32" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
       </c>
       <c r="B32" t="n" s="0">
+        <v>9</v>
+      </c>
+      <c r="C32" t="n" s="0">
+        <v>133</v>
+      </c>
+      <c r="D32" t="inlineStr" s="0">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B33" t="n" s="0">
+        <v>8</v>
+      </c>
+      <c r="C33" t="n" s="0">
+        <v>131</v>
+      </c>
+      <c r="D33" t="inlineStr" s="0">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B34" t="n" s="0">
+        <v>7</v>
+      </c>
+      <c r="C34" t="n" s="0">
+        <v>220</v>
+      </c>
+      <c r="D34" t="inlineStr" s="0">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B35" t="n" s="0">
+        <v>8</v>
+      </c>
+      <c r="C35" t="n" s="0">
+        <v>519</v>
+      </c>
+      <c r="D35" t="inlineStr" s="0">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B36" t="n" s="0">
+        <v>9</v>
+      </c>
+      <c r="C36" t="n" s="0">
+        <v>551</v>
+      </c>
+      <c r="D36" t="inlineStr" s="0">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B37" t="n" s="0">
+        <v>7</v>
+      </c>
+      <c r="C37" t="n" s="0">
+        <v>166</v>
+      </c>
+      <c r="D37" t="inlineStr" s="0">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B38" t="n" s="0">
+        <v>6</v>
+      </c>
+      <c r="C38" t="n" s="0">
+        <v>83</v>
+      </c>
+      <c r="D38" t="inlineStr" s="0">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B39" t="n" s="0">
+        <v>8</v>
+      </c>
+      <c r="C39" t="n" s="0">
+        <v>191</v>
+      </c>
+      <c r="D39" t="inlineStr" s="0">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B40" t="n" s="0">
+        <v>9</v>
+      </c>
+      <c r="C40" t="n" s="0">
+        <v>213</v>
+      </c>
+      <c r="D40" t="inlineStr" s="0">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B41" t="n" s="0">
+        <v>9</v>
+      </c>
+      <c r="C41" t="n" s="0">
+        <v>396</v>
+      </c>
+      <c r="D41" t="inlineStr" s="0">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B42" t="n" s="0">
+        <v>16</v>
+      </c>
+      <c r="C42" t="n" s="0">
+        <v>297</v>
+      </c>
+      <c r="D42" t="inlineStr" s="0">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B43" t="n" s="0">
+        <v>18</v>
+      </c>
+      <c r="C43" t="n" s="0">
+        <v>4414</v>
+      </c>
+      <c r="D43" t="inlineStr" s="0">
+        <is>
+          <t>12.0499</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B44" t="n" s="0">
+        <v>18</v>
+      </c>
+      <c r="C44" t="n" s="0">
+        <v>1664</v>
+      </c>
+      <c r="D44" t="inlineStr" s="0">
+        <is>
+          <t>6.1622</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B45" t="n" s="0">
+        <v>14</v>
+      </c>
+      <c r="C45" t="n" s="0">
+        <v>1872</v>
+      </c>
+      <c r="D45" t="inlineStr" s="0">
+        <is>
+          <t>0.2803</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B46" t="n" s="0">
+        <v>15</v>
+      </c>
+      <c r="C46" t="n" s="0">
+        <v>860</v>
+      </c>
+      <c r="D46" t="inlineStr" s="0">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B47" t="n" s="0">
+        <v>17</v>
+      </c>
+      <c r="C47" t="n" s="0">
+        <v>2110</v>
+      </c>
+      <c r="D47" t="inlineStr" s="0">
+        <is>
+          <t>1.2830</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B48" t="n" s="0">
+        <v>18</v>
+      </c>
+      <c r="C48" t="n" s="0">
+        <v>1668</v>
+      </c>
+      <c r="D48" t="inlineStr" s="0">
+        <is>
+          <t>1.4474</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B49" t="n" s="0">
+        <v>16</v>
+      </c>
+      <c r="C49" t="n" s="0">
+        <v>253</v>
+      </c>
+      <c r="D49" t="inlineStr" s="0">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B50" t="n" s="0">
+        <v>14</v>
+      </c>
+      <c r="C50" t="n" s="0">
+        <v>1633</v>
+      </c>
+      <c r="D50" t="inlineStr" s="0">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B51" t="n" s="0">
+        <v>14</v>
+      </c>
+      <c r="C51" t="n" s="0">
+        <v>3203</v>
+      </c>
+      <c r="D51" t="inlineStr" s="0">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B52" t="n" s="0">
+        <v>21</v>
+      </c>
+      <c r="C52" t="n" s="0">
+        <v>5909</v>
+      </c>
+      <c r="D52" t="inlineStr" s="0">
+        <is>
+          <t>13.4917</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B53" t="n" s="0">
+        <v>24</v>
+      </c>
+      <c r="C53" t="n" s="0">
+        <v>317</v>
+      </c>
+      <c r="D53" t="inlineStr" s="0">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B54" t="n" s="0">
+        <v>22</v>
+      </c>
+      <c r="C54" t="n" s="0">
+        <v>4511</v>
+      </c>
+      <c r="D54" t="inlineStr" s="0">
+        <is>
+          <t>11.3838</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B55" t="n" s="0">
+        <v>22</v>
+      </c>
+      <c r="C55" t="n" s="0">
+        <v>6437</v>
+      </c>
+      <c r="D55" t="inlineStr" s="0">
+        <is>
+          <t>31.0892</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B56" t="n" s="0">
+        <v>22</v>
+      </c>
+      <c r="C56" t="n" s="0">
+        <v>2199</v>
+      </c>
+      <c r="D56" t="inlineStr" s="0">
+        <is>
+          <t>0.5790</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B57" t="n" s="0">
+        <v>21</v>
+      </c>
+      <c r="C57" t="n" s="0">
+        <v>7115</v>
+      </c>
+      <c r="D57" t="inlineStr" s="0">
+        <is>
+          <t>14.9144</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B58" t="n" s="0">
+        <v>22</v>
+      </c>
+      <c r="C58" t="n" s="0">
+        <v>4455</v>
+      </c>
+      <c r="D58" t="inlineStr" s="0">
+        <is>
+          <t>14.7269</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B59" t="n" s="0">
+        <v>25</v>
+      </c>
+      <c r="C59" t="n" s="0">
+        <v>548</v>
+      </c>
+      <c r="D59" t="inlineStr" s="0">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B60" t="n" s="0">
+        <v>23</v>
+      </c>
+      <c r="C60" t="n" s="0">
+        <v>955</v>
+      </c>
+      <c r="D60" t="inlineStr" s="0">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr" s="0">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B61" t="n" s="0">
+        <v>23</v>
+      </c>
+      <c r="C61" t="n" s="0">
+        <v>9743</v>
+      </c>
+      <c r="D61" t="inlineStr" s="0">
+        <is>
+          <t>49.4018</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B62" t="n" s="0">
+        <v>7</v>
+      </c>
+      <c r="C62" t="n" s="0">
+        <v>303</v>
+      </c>
+      <c r="D62" t="inlineStr" s="0">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B63" t="n" s="0">
+        <v>8</v>
+      </c>
+      <c r="C63" t="n" s="0">
+        <v>75</v>
+      </c>
+      <c r="D63" t="inlineStr" s="0">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B64" t="n" s="0">
+        <v>10</v>
+      </c>
+      <c r="C64" t="n" s="0">
+        <v>28</v>
+      </c>
+      <c r="D64" t="inlineStr" s="0">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B65" t="n" s="0">
+        <v>9</v>
+      </c>
+      <c r="C65" t="n" s="0">
+        <v>18</v>
+      </c>
+      <c r="D65" t="inlineStr" s="0">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B66" t="n" s="0">
+        <v>5</v>
+      </c>
+      <c r="C66" t="n" s="0">
+        <v>210</v>
+      </c>
+      <c r="D66" t="inlineStr" s="0">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B67" t="n" s="0">
+        <v>6</v>
+      </c>
+      <c r="C67" t="n" s="0">
+        <v>172</v>
+      </c>
+      <c r="D67" t="inlineStr" s="0">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B68" t="n" s="0">
+        <v>6</v>
+      </c>
+      <c r="C68" t="n" s="0">
+        <v>89</v>
+      </c>
+      <c r="D68" t="inlineStr" s="0">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B69" t="n" s="0">
+        <v>5</v>
+      </c>
+      <c r="C69" t="n" s="0">
+        <v>66</v>
+      </c>
+      <c r="D69" t="inlineStr" s="0">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B70" t="n" s="0">
+        <v>8</v>
+      </c>
+      <c r="C70" t="n" s="0">
+        <v>60</v>
+      </c>
+      <c r="D70" t="inlineStr" s="0">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B71" t="n" s="0">
+        <v>10</v>
+      </c>
+      <c r="C71" t="n" s="0">
+        <v>83</v>
+      </c>
+      <c r="D71" t="inlineStr" s="0">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B72" t="n" s="0">
+        <v>16</v>
+      </c>
+      <c r="C72" t="n" s="0">
+        <v>1617</v>
+      </c>
+      <c r="D72" t="inlineStr" s="0">
+        <is>
+          <t>7.6975</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B73" t="n" s="0">
+        <v>16</v>
+      </c>
+      <c r="C73" t="n" s="0">
+        <v>1359</v>
+      </c>
+      <c r="D73" t="inlineStr" s="0">
+        <is>
+          <t>5.6544</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B74" t="n" s="0">
+        <v>12</v>
+      </c>
+      <c r="C74" t="n" s="0">
+        <v>2610</v>
+      </c>
+      <c r="D74" t="inlineStr" s="0">
+        <is>
+          <t>0.8791</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B75" t="n" s="0">
+        <v>17</v>
+      </c>
+      <c r="C75" t="n" s="0">
+        <v>4036</v>
+      </c>
+      <c r="D75" t="inlineStr" s="0">
+        <is>
+          <t>31.7955</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B76" t="n" s="0">
+        <v>15</v>
+      </c>
+      <c r="C76" t="n" s="0">
+        <v>3302</v>
+      </c>
+      <c r="D76" t="inlineStr" s="0">
+        <is>
+          <t>7.3787</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B77" t="n" s="0">
+        <v>13</v>
+      </c>
+      <c r="C77" t="n" s="0">
+        <v>3263</v>
+      </c>
+      <c r="D77" t="inlineStr" s="0">
+        <is>
+          <t>1.7418</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B78" t="n" s="0">
+        <v>17</v>
+      </c>
+      <c r="C78" t="n" s="0">
+        <v>4779</v>
+      </c>
+      <c r="D78" t="inlineStr" s="0">
+        <is>
+          <t>28.4391</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B79" t="n" s="0">
+        <v>13</v>
+      </c>
+      <c r="C79" t="n" s="0">
+        <v>1687</v>
+      </c>
+      <c r="D79" t="inlineStr" s="0">
+        <is>
+          <t>1.5931</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B80" t="n" s="0">
+        <v>18</v>
+      </c>
+      <c r="C80" t="n" s="0">
+        <v>2925</v>
+      </c>
+      <c r="D80" t="inlineStr" s="0">
+        <is>
+          <t>51.0035</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B81" t="n" s="0">
+        <v>19</v>
+      </c>
+      <c r="C81" t="n" s="0">
+        <v>5182</v>
+      </c>
+      <c r="D81" t="inlineStr" s="0">
+        <is>
+          <t>110.9548</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B82" t="n" s="0">
+        <v>22</v>
+      </c>
+      <c r="C82" t="n" s="0">
+        <v>1322</v>
+      </c>
+      <c r="D82" t="inlineStr" s="0">
+        <is>
+          <t>1.1256</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B83" t="n" s="0">
+        <v>25</v>
+      </c>
+      <c r="C83" t="n" s="0">
+        <v>7665</v>
+      </c>
+      <c r="D83" t="inlineStr" s="0">
+        <is>
+          <t>9679.1388</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B84" t="n" s="0">
+        <v>22</v>
+      </c>
+      <c r="C84" t="n" s="0">
+        <v>10421</v>
+      </c>
+      <c r="D84" t="inlineStr" s="0">
+        <is>
+          <t>1815.0015</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B85" t="n" s="0">
+        <v>20</v>
+      </c>
+      <c r="C85" t="n" s="0">
+        <v>10089</v>
+      </c>
+      <c r="D85" t="inlineStr" s="0">
+        <is>
+          <t>220.7969</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B86" t="n" s="0">
+        <v>21</v>
+      </c>
+      <c r="C86" t="n" s="0">
+        <v>4807</v>
+      </c>
+      <c r="D86" t="inlineStr" s="0">
+        <is>
+          <t>242.8911</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>24</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>11859</v>
+      </c>
+      <c r="D87" t="inlineStr" s="0">
+        <is>
+          <t>6064.1948</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B88" t="n" s="0">
+        <v>24</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>1294</v>
+      </c>
+      <c r="D88" t="inlineStr" s="0">
+        <is>
+          <t>10.1082</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>24</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>10869</v>
+      </c>
+      <c r="D89" t="inlineStr" s="0">
+        <is>
+          <t>6121.5827</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>20</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>162</v>
+      </c>
+      <c r="D90" t="inlineStr" s="0">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr" s="0">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>20</v>
+      </c>
+      <c r="C91" t="n" s="0">
+        <v>2359</v>
+      </c>
+      <c r="D91" t="inlineStr" s="0">
+        <is>
+          <t>11.9170</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B92" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C92" t="n" s="0">
+        <v>303.0</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B93" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C93" t="n" s="0">
+        <v>75.0</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B94" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="C94" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B95" t="n" s="0">
         <v>9.0</v>
       </c>
-      <c r="C32" t="n" s="0">
-        <v>133.0</v>
-      </c>
-      <c r="D32" t="s" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B33" t="n" s="0">
+      <c r="C95" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B96" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C96" t="n" s="0">
+        <v>210.0</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B97" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C97" t="n" s="0">
+        <v>172.0</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B98" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C98" t="n" s="0">
+        <v>89.0</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B99" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C99" t="n" s="0">
+        <v>66.0</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B100" t="n" s="0">
         <v>8.0</v>
       </c>
-      <c r="C33" t="n" s="0">
-        <v>131.0</v>
-      </c>
-      <c r="D33" t="s" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B34" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="C34" t="n" s="0">
-        <v>220.0</v>
-      </c>
-      <c r="D34" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B35" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="C35" t="n" s="0">
-        <v>519.0</v>
-      </c>
-      <c r="D35" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B36" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="C36" t="n" s="0">
-        <v>551.0</v>
-      </c>
-      <c r="D36" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B37" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="C37" t="n" s="0">
-        <v>166.0</v>
-      </c>
-      <c r="D37" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B38" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="C38" t="n" s="0">
+      <c r="C100" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B101" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="C101" t="n" s="0">
         <v>83.0</v>
       </c>
-      <c r="D38" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B39" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="C39" t="n" s="0">
-        <v>191.0</v>
-      </c>
-      <c r="D39" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B40" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="C40" t="n" s="0">
-        <v>213.0</v>
-      </c>
-      <c r="D40" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B41" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="C41" t="n" s="0">
-        <v>396.0</v>
-      </c>
-      <c r="D41" t="s" s="0">
+      <c r="D101" t="s" s="0">
         <v>10</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B42" t="n" s="0">
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B102" t="n" s="0">
         <v>16.0</v>
       </c>
-      <c r="C42" t="n" s="0">
-        <v>297.0</v>
-      </c>
-      <c r="D42" t="s" s="0">
+      <c r="C102" t="n" s="0">
+        <v>1617.0</v>
+      </c>
+      <c r="D102" t="s" s="0">
         <v>11</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B43" t="n" s="0">
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B103" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C103" t="n" s="0">
+        <v>1359.0</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B104" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C104" t="n" s="0">
+        <v>2610.0</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B105" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C105" t="n" s="0">
+        <v>4036.0</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B106" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C106" t="n" s="0">
+        <v>3302.0</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B107" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C107" t="n" s="0">
+        <v>3263.0</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B108" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C108" t="n" s="0">
+        <v>4779.0</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B109" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C109" t="n" s="0">
+        <v>1687.0</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B110" t="n" s="0">
         <v>18.0</v>
       </c>
-      <c r="C43" t="n" s="0">
-        <v>4414.0</v>
-      </c>
-      <c r="D43" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B44" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="C44" t="n" s="0">
-        <v>1664.0</v>
-      </c>
-      <c r="D44" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B45" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="C45" t="n" s="0">
-        <v>1872.0</v>
-      </c>
-      <c r="D45" t="s" s="0">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B46" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="C46" t="n" s="0">
-        <v>860.0</v>
-      </c>
-      <c r="D46" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B47" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="C47" t="n" s="0">
-        <v>2110.0</v>
-      </c>
-      <c r="D47" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B48" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="C48" t="n" s="0">
-        <v>1668.0</v>
-      </c>
-      <c r="D48" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B49" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="C49" t="n" s="0">
-        <v>253.0</v>
-      </c>
-      <c r="D49" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B50" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="C50" t="n" s="0">
-        <v>1633.0</v>
-      </c>
-      <c r="D50" t="s" s="0">
+      <c r="C110" t="n" s="0">
+        <v>2925.0</v>
+      </c>
+      <c r="D110" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B51" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="C51" t="n" s="0">
-        <v>3203.0</v>
-      </c>
-      <c r="D51" t="s" s="0">
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B111" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="C111" t="n" s="0">
+        <v>5182.0</v>
+      </c>
+      <c r="D111" t="s" s="0">
         <v>20</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B52" t="n" s="0">
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B112" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C112" t="n" s="0">
+        <v>1322.0</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B113" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="C113" t="n" s="0">
+        <v>7665.0</v>
+      </c>
+      <c r="D113" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B114" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C114" t="n" s="0">
+        <v>10421.0</v>
+      </c>
+      <c r="D114" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B115" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C115" t="n" s="0">
+        <v>10089.0</v>
+      </c>
+      <c r="D115" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B116" t="n" s="0">
         <v>21.0</v>
       </c>
-      <c r="C52" t="n" s="0">
-        <v>5909.0</v>
-      </c>
-      <c r="D52" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B53" t="n" s="0">
+      <c r="C116" t="n" s="0">
+        <v>4807.0</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B117" t="n" s="0">
         <v>24.0</v>
       </c>
-      <c r="C53" t="n" s="0">
-        <v>317.0</v>
-      </c>
-      <c r="D53" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B54" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="C54" t="n" s="0">
-        <v>4511.0</v>
-      </c>
-      <c r="D54" t="s" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B55" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="C55" t="n" s="0">
-        <v>6437.0</v>
-      </c>
-      <c r="D55" t="s" s="0">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B56" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="C56" t="n" s="0">
-        <v>2199.0</v>
-      </c>
-      <c r="D56" t="s" s="0">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B57" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="C57" t="n" s="0">
-        <v>7115.0</v>
-      </c>
-      <c r="D57" t="s" s="0">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B58" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="C58" t="n" s="0">
-        <v>4455.0</v>
-      </c>
-      <c r="D58" t="s" s="0">
+      <c r="C117" t="n" s="0">
+        <v>11859.0</v>
+      </c>
+      <c r="D117" t="s" s="0">
         <v>26</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B59" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="C59" t="n" s="0">
-        <v>548.0</v>
-      </c>
-      <c r="D59" t="s" s="0">
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B118" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C118" t="n" s="0">
+        <v>1294.0</v>
+      </c>
+      <c r="D118" t="s" s="0">
         <v>27</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B60" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="C60" t="n" s="0">
-        <v>955.0</v>
-      </c>
-      <c r="D60" t="s" s="0">
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B119" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C119" t="n" s="0">
+        <v>10869.0</v>
+      </c>
+      <c r="D119" t="s" s="0">
         <v>28</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B61" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="C61" t="n" s="0">
-        <v>9743.0</v>
-      </c>
-      <c r="D61" t="s" s="0">
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B120" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C120" t="n" s="0">
+        <v>162.0</v>
+      </c>
+      <c r="D120" t="s" s="0">
         <v>29</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B62" t="n" s="0">
-        <v>30.0</v>
-      </c>
-      <c r="C62" t="n" s="0">
-        <v>12952.0</v>
-      </c>
-      <c r="D62" t="s" s="0">
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B121" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C121" t="n" s="0">
+        <v>2359.0</v>
+      </c>
+      <c r="D121" t="s" s="0">
         <v>30</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B63" t="n" s="0">
-        <v>30.0</v>
-      </c>
-      <c r="C63" t="n" s="0">
-        <v>7834.0</v>
-      </c>
-      <c r="D63" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B64" t="n" s="0">
-        <v>30.0</v>
-      </c>
-      <c r="C64" t="n" s="0">
-        <v>4721.0</v>
-      </c>
-      <c r="D64" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B65" t="n" s="0">
-        <v>26.0</v>
-      </c>
-      <c r="C65" t="n" s="0">
-        <v>8396.0</v>
-      </c>
-      <c r="D65" t="s" s="0">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B66" t="n" s="0">
-        <v>29.0</v>
-      </c>
-      <c r="C66" t="n" s="0">
-        <v>3878.0</v>
-      </c>
-      <c r="D66" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B67" t="n" s="0">
-        <v>26.0</v>
-      </c>
-      <c r="C67" t="n" s="0">
-        <v>8515.0</v>
-      </c>
-      <c r="D67" t="s" s="0">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B68" t="n" s="0">
-        <v>27.0</v>
-      </c>
-      <c r="C68" t="n" s="0">
-        <v>3964.0</v>
-      </c>
-      <c r="D68" t="s" s="0">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B69" t="n" s="0">
-        <v>26.0</v>
-      </c>
-      <c r="C69" t="n" s="0">
-        <v>5535.0</v>
-      </c>
-      <c r="D69" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B70" t="n" s="0">
-        <v>28.0</v>
-      </c>
-      <c r="C70" t="n" s="0">
-        <v>10103.0</v>
-      </c>
-      <c r="D70" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B71" t="n" s="0">
-        <v>30.0</v>
-      </c>
-      <c r="C71" t="n" s="0">
-        <v>14188.0</v>
-      </c>
-      <c r="D71" t="s" s="0">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
